--- a/biology/Botanique/Apeiba_tibourbou/Apeiba_tibourbou.xlsx
+++ b/biology/Botanique/Apeiba_tibourbou/Apeiba_tibourbou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apeiba tibourbou est une espèce d'arbre de la famille des Malvaceae, (ou anciennement des Tiliaceae selon la (classification de Cronquist).
-Apeiba tibourbou Aubl. est l'espèce type du genre Apeiba Aubl.[3].
-En Guyane, on appelle cet arbre bois bouchon, peigne macaque (créole), ape'ɨ (Wayãpi), imaβui, yit itaibi (Palikur), pente-de-macaco (Portugais)[4].
-Au Brésil, on l'appelle aussi pente-de-macaco, pau-jangada, Pau de jangada[5], cortiça, jangadeira, escova de macaco et embira-branca [6],[7]. Les Tacana le nomment Bechu echua, Cabeza de mono silbador en Bolivie[8].
-On le nomme Fruta de piojo, Peine de mico, Corlezo au Panama, Monkey comb en Anglais[9].
+Apeiba tibourbou Aubl. est l'espèce type du genre Apeiba Aubl..
+En Guyane, on appelle cet arbre bois bouchon, peigne macaque (créole), ape'ɨ (Wayãpi), imaβui, yit itaibi (Palikur), pente-de-macaco (Portugais).
+Au Brésil, on l'appelle aussi pente-de-macaco, pau-jangada, Pau de jangada, cortiça, jangadeira, escova de macaco et embira-branca ,. Les Tacana le nomment Bechu echua, Cabeza de mono silbador en Bolivie.
+On le nomme Fruta de piojo, Peine de mico, Corlezo au Panama, Monkey comb en Anglais.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apeiba tibourbou est l'espèce la plus commune du genre[10], présente du Mexique à la Bolivie et au Brésil, y compris les Antilles[10]. Il est présent dans les biomes : forêt atlantique, le cerrado, les caatinga et en Amazonie dans les types d'habitats naturels : forêt secondaire[10], savanes, ripisylves, forêt galerie, et forêt tropicale humide.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apeiba tibourbou est l'espèce la plus commune du genre, présente du Mexique à la Bolivie et au Brésil, y compris les Antilles. Il est présent dans les biomes : forêt atlantique, le cerrado, les caatinga et en Amazonie dans les types d'habitats naturels : forêt secondaire, savanes, ripisylves, forêt galerie, et forêt tropicale humide.
 </t>
         </is>
       </c>
@@ -546,18 +560,20 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre semi-caducifolié peut atteindre 20 mètres de hauteur, avec un tronc droit et cylindrique d'un diamètre moyen de 50 centimètres et un grand houppier. Les jeunes branches et les pétioles des feuilles sont couvertes de poils roussâtres[11].
-Les feuilles sont plutôt vertes brillantes, simples, alternes, stipulées, peu rugueuses, peu denses tomenteuses, finement dentées, d'une taille moyenne de 28 centimètres sur 15 centimètres de largeur[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre semi-caducifolié peut atteindre 20 mètres de hauteur, avec un tronc droit et cylindrique d'un diamètre moyen de 50 centimètres et un grand houppier. Les jeunes branches et les pétioles des feuilles sont couvertes de poils roussâtres.
+Les feuilles sont plutôt vertes brillantes, simples, alternes, stipulées, peu rugueuses, peu denses tomenteuses, finement dentées, d'une taille moyenne de 28 centimètres sur 15 centimètres de largeur.
 Les inflorescences paniculées mesurent 9 centimètres en moyenne.
-Les fleurs, pollinisées par les abeilles, sont jaunes, parfumées ou inodores[13], bisexuées, ouvertes, actinomorphes, pluricarpelées, pluriloculées à placentation axillaire supralatérale, à verticilles de type diclamideo.
+Les fleurs, pollinisées par les abeilles, sont jaunes, parfumées ou inodores, bisexuées, ouvertes, actinomorphes, pluricarpelées, pluriloculées à placentation axillaire supralatérale, à verticilles de type diclamideo.
 Le calice est dialissépale, vert brunâtre à l'extérieur, mais jaunâtres à l'intérieur.
 La corolle est dialipétale, parfaitement jaune.
-Les anthères sont à déhiscence longitudinale[7],[14],[15].
-Le fruit est fortement déprimé avec des épines longues de 1-1,5 cm[13].
-Le pollen est organisé en monade, suboblé sphéroïde, avec une symétrie radiale, avec une polarité isopolaires, subcirculaire portée, avec une ouverture de type colporé, avec un long colpus, un pore allongé, tricolporé. L'exine est ornementée micro-reticulée[16].
-La physiologie de la germination a été étudiée chez Apeiba tibourbou[17],[10],[18].
+Les anthères sont à déhiscence longitudinale.
+Le fruit est fortement déprimé avec des épines longues de 1-1,5 cm.
+Le pollen est organisé en monade, suboblé sphéroïde, avec une symétrie radiale, avec une polarité isopolaires, subcirculaire portée, avec une ouverture de type colporé, avec un long colpus, un pore allongé, tricolporé. L'exine est ornementée micro-reticulée.
+La physiologie de la germination a été étudiée chez Apeiba tibourbou.
 </t>
         </is>
       </c>
@@ -586,14 +602,16 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Wayãpi utilisent le mucilage polyosidique extrait de l'écorce malaxée dans l'eau pour empoisser les méliponnes dans leur nid, permettant d'en extraire le miel sans être attaqué. Les Palikur, confectionnent à partir des feuilles un remède contre les traumatismes du thorax à la suite des coups violents (« blesse »)[4]. La plante contient de l'acide rosmarinique. En Bolivie, les fruits jaunes laineux d’Apeiba tibourbou contiennent une pulpe grasse à odeur agréable, utilisée chez les Tacana pour rendre les cheveux brillants, doux, parfumés, et tuer les poux[8].
-Son bois poreux, léger et facile à travailler présente une faible densité et peu durable naturellement. Il sert à fabriquer des poteaux, de la pâte à papier et des radeaux en raison de sa flottabilité. L'écorce fibreuse sert à fabriquer des cordes[19],[7].
-les Tacana de Bolivie emploient aussi son bois pour le feu, son écorce pour faire des ficelles, et l'huile des fruits pour cirer les chaussures[8].
-L'extrait de Apeiba tibourbou présente des activités antioxydantes[5].
-Le processus d'extraction de ces composés actifs a été étudié[20].
-Apeiba tibourbou présente des propriétés inhibitrices sur le complément[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Wayãpi utilisent le mucilage polyosidique extrait de l'écorce malaxée dans l'eau pour empoisser les méliponnes dans leur nid, permettant d'en extraire le miel sans être attaqué. Les Palikur, confectionnent à partir des feuilles un remède contre les traumatismes du thorax à la suite des coups violents (« blesse »). La plante contient de l'acide rosmarinique. En Bolivie, les fruits jaunes laineux d’Apeiba tibourbou contiennent une pulpe grasse à odeur agréable, utilisée chez les Tacana pour rendre les cheveux brillants, doux, parfumés, et tuer les poux.
+Son bois poreux, léger et facile à travailler présente une faible densité et peu durable naturellement. Il sert à fabriquer des poteaux, de la pâte à papier et des radeaux en raison de sa flottabilité. L'écorce fibreuse sert à fabriquer des cordes,.
+les Tacana de Bolivie emploient aussi son bois pour le feu, son écorce pour faire des ficelles, et l'huile des fruits pour cirer les chaussures.
+L'extrait de Apeiba tibourbou présente des activités antioxydantes.
+Le processus d'extraction de ces composés actifs a été étudié.
+Apeiba tibourbou présente des propriétés inhibitrices sur le complément.
 </t>
         </is>
       </c>
@@ -622,9 +640,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « APEIBA (Tibourbou). (Tabula 213.) foliis cordatis, ovato-oblongis, acutis, ſerrulatis, ſubtùs hirſutis, rufeſcentibus ; fructu magno, rotundo, compreſſo, hiſpido. 
 Apeiba. Marcgr. Braſ. p. 123. t. 123. 
 Apeiba amplo folio, rugoſo, fructu globoſo, hiſpido. Bar. Fr. Equin. pag. 13. 
